--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\training project\final-code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAF91E-45B4-4443-A046-1D964AC5326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الخلفاوي" sheetId="1" r:id="rId1"/>
@@ -16,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>اسم القاعه</t>
   </si>
@@ -118,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,18 +417,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:D12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,20 +531,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
@@ -612,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -795,10 +776,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\training project\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAF91E-45B4-4443-A046-1D964AC5326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C243B9C-4725-4ECF-86CA-062776A65E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الخلفاوي" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\training project\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C243B9C-4725-4ECF-86CA-062776A65E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF3568-E012-460F-A86F-D409B74D71F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="الخلفاوي" sheetId="1" r:id="rId1"/>
-    <sheet name="روض الفرج" sheetId="4" r:id="rId2"/>
-    <sheet name="الدفعات" sheetId="3" r:id="rId3"/>
+    <sheet name="الدفعات" sheetId="3" r:id="rId1"/>
+    <sheet name="الخلفاوي" sheetId="1" r:id="rId2"/>
+    <sheet name="روض الفرج" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -424,363 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>400</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,4 +546,356 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="128" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>400</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\training project\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Downloads\final-code-main (3)\final-code-main\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E426FB5D-142C-4DB6-AD7E-22AE4642E55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5000AF4-0740-4E55-9011-1C24DDA250C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الدفعات" sheetId="3" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,12 +656,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -672,10 +686,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -686,29 +700,15 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
         <v>1</v>
       </c>
     </row>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView rightToLeft="1" zoomScale="128" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Downloads\final-code-main (3)\final-code-main\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5000AF4-0740-4E55-9011-1C24DDA250C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43D407-9911-4E55-A450-E81B8A6508AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الدفعات" sheetId="3" r:id="rId1"/>
-    <sheet name="الخلفاوي" sheetId="1" r:id="rId2"/>
+    <sheet name="خلفاوي" sheetId="1" r:id="rId2"/>
     <sheet name="روض الفرج" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -101,13 +101,13 @@
     <t>رابعه حاسبات</t>
   </si>
   <si>
-    <t>الخلفاوي</t>
-  </si>
-  <si>
     <t>اعدادي هندسه</t>
   </si>
   <si>
     <t>روض الفرج</t>
+  </si>
+  <si>
+    <t>خلفاوي</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,10 +460,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2">
         <v>320</v>
@@ -480,7 +480,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>120</v>
@@ -497,7 +497,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>115</v>
@@ -514,7 +514,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\training project\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43D407-9911-4E55-A450-E81B8A6508AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC16D1F-24B5-4779-9780-D67D5218CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1464" windowWidth="12024" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الدفعات" sheetId="3" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>50</v>

--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD0A8B-9725-41F3-87A2-1FDD837E6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A15410-55DC-40DD-8E11-41558AE803D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>اسم القاعه</t>
   </si>
@@ -536,15 +536,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -930,7 +927,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -942,12 +939,12 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B3" t="s">
@@ -956,15 +953,15 @@
       <c r="C3">
         <v>95</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>141001</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>141095</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
@@ -973,15 +970,15 @@
       <c r="C4">
         <v>108</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>241001</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>241108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B5" t="s">
@@ -990,15 +987,15 @@
       <c r="C5">
         <v>47</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>341001</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>341047</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B6" t="s">
@@ -1007,15 +1004,15 @@
       <c r="C6">
         <v>58</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>443001</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>443058</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B7" t="s">
@@ -1024,15 +1021,15 @@
       <c r="C7">
         <v>128</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>42001</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>420128</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
@@ -1041,15 +1038,15 @@
       <c r="C8">
         <v>157</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>13001</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>13157</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
@@ -1058,15 +1055,15 @@
       <c r="C9">
         <v>188</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>23001</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>23188</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
@@ -1075,15 +1072,15 @@
       <c r="C10">
         <v>68</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>33001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>33068</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B11" t="s">
@@ -1092,15 +1089,15 @@
       <c r="C11">
         <v>82</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>331001</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>331082</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1109,15 +1106,15 @@
       <c r="C12">
         <v>90</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>310001</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>310090</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
@@ -1126,15 +1123,15 @@
       <c r="C13">
         <v>71</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>410001</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>410071</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
@@ -1143,15 +1140,15 @@
       <c r="C14">
         <v>121</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>320001</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>320121</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
@@ -1160,15 +1157,15 @@
       <c r="C15">
         <v>111</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>431001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>431111</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B16" t="s">
@@ -1177,15 +1174,15 @@
       <c r="C16">
         <v>98</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>432001</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>432098</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
@@ -1194,15 +1191,15 @@
       <c r="C17">
         <v>54</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>210001</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>210054</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B18" t="s">
@@ -1211,15 +1208,15 @@
       <c r="C18">
         <v>99</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>110001</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>110099</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B19" t="s">
@@ -1228,15 +1225,15 @@
       <c r="C19">
         <v>100</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>120001</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>120100</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
@@ -1245,15 +1242,15 @@
       <c r="C20">
         <v>100</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>220001</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>220100</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B21" t="s">
@@ -1262,15 +1259,15 @@
       <c r="C21">
         <v>159</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>351001</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>351159</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B22" t="s">
@@ -1279,15 +1276,15 @@
       <c r="C22">
         <v>148</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>451001</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>451148</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B23" t="s">
@@ -1296,15 +1293,15 @@
       <c r="C23">
         <v>160</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>251001</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>251160</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
@@ -1313,15 +1310,15 @@
       <c r="C24">
         <v>150</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>152001</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>152150</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B25" t="s">
@@ -1330,15 +1327,15 @@
       <c r="C25">
         <v>211</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>342001</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>342211</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B26" t="s">
@@ -1347,15 +1344,15 @@
       <c r="C26">
         <v>138</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>151001</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>151138</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B27" t="s">
@@ -1364,15 +1361,15 @@
       <c r="C27">
         <v>122</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>142001</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <v>142122</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B28" t="s">
@@ -1381,15 +1378,15 @@
       <c r="C28">
         <v>77</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>343001</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <v>343077</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
@@ -1398,15 +1395,15 @@
       <c r="C29">
         <v>180</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>242001</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <v>242180</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B30" t="s">
@@ -1415,15 +1412,15 @@
       <c r="C30">
         <v>164</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>442001</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <v>442164</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B31" t="s">
@@ -1432,10 +1429,10 @@
       <c r="C31">
         <v>37</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>441001</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <v>441037</v>
       </c>
     </row>
@@ -1446,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,562 +1473,353 @@
         <v>15</v>
       </c>
       <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
+      <c r="A18" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
+      <c r="A21" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+      <c r="A22" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
+      <c r="A23" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
+      <c r="A24" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
+      <c r="A25" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>28</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>28</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>28</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>28</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>28</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>28</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2063,10 +1851,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>40</v>
       </c>
       <c r="C2">
@@ -2077,10 +1865,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>18</v>
       </c>
       <c r="C3">
@@ -2091,10 +1879,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>18</v>
       </c>
       <c r="C4">
@@ -2105,10 +1893,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>36</v>
       </c>
       <c r="C5">
@@ -2119,10 +1907,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>20</v>
       </c>
       <c r="C6">
@@ -2133,10 +1921,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>24</v>
       </c>
       <c r="C7">
@@ -2147,10 +1935,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>45</v>
       </c>
       <c r="C8">
@@ -2161,10 +1949,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>36</v>
       </c>
       <c r="C9">
@@ -2175,10 +1963,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>36</v>
       </c>
       <c r="C10">
@@ -2189,10 +1977,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>40</v>
       </c>
       <c r="C11">
@@ -2203,10 +1991,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>28</v>
       </c>
       <c r="C12">
@@ -2217,10 +2005,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>28</v>
       </c>
       <c r="C13">
@@ -2231,10 +2019,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>38</v>
       </c>
       <c r="C14">
@@ -2245,10 +2033,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>28</v>
       </c>
       <c r="C15">
@@ -2259,10 +2047,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>28</v>
       </c>
       <c r="C16">
@@ -2273,10 +2061,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>40</v>
       </c>
       <c r="C17">
@@ -2287,10 +2075,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>48</v>
       </c>
       <c r="C18">
@@ -2301,10 +2089,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>48</v>
       </c>
       <c r="C19">
@@ -2315,10 +2103,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>40</v>
       </c>
       <c r="C20">
@@ -2329,10 +2117,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>55</v>
       </c>
       <c r="C21">
@@ -2343,10 +2131,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>65</v>
       </c>
       <c r="C22">
@@ -2357,10 +2145,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>50</v>
       </c>
       <c r="C23">
@@ -2371,10 +2159,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>60</v>
       </c>
       <c r="C24">
@@ -2385,10 +2173,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>10</v>
       </c>
       <c r="C25">
@@ -2399,10 +2187,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>10</v>
       </c>
       <c r="C26">
@@ -2413,10 +2201,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>38</v>
       </c>
       <c r="C27">

--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\training project\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A15410-55DC-40DD-8E11-41558AE803D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16330D9B-B537-46FD-8B3A-13A4CE404086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الدفعات" sheetId="3" r:id="rId1"/>
@@ -895,9 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1445,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView rightToLeft="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/halls_data_input.xlsx
+++ b/halls_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\training project\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16330D9B-B537-46FD-8B3A-13A4CE404086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76901CAE-7A8F-4A27-9F83-9CB6E6CEE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,7 +895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
